--- a/biology/Botanique/Eleocharis_palustris/Eleocharis_palustris.xlsx
+++ b/biology/Botanique/Eleocharis_palustris/Eleocharis_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleocharis palustris
-Le Scirpe des marais dont le nom scientifique est Eleocharis palustris (L.) Roem. &amp; Schult. est l'une des 76 espèces d'Eleocharis[6], espèce pérenne des zones humides ou marais de la zone circumboréale (et jusqu'au sud des États-Unis)[6].
+Le Scirpe des marais dont le nom scientifique est Eleocharis palustris (L.) Roem. &amp; Schult. est l'une des 76 espèces d'Eleocharis, espèce pérenne des zones humides ou marais de la zone circumboréale (et jusqu'au sud des États-Unis).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleocharis palustris tire son nom scientifique de « hélos » qui signifie marécage et « charis » qui signifie joie.
 </t>
@@ -543,7 +557,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est parfois utilisée comme plante épuratrice dans le cadre d'un lagunage naturel. Elle peut aussi servir de plante décorative pour la finesse et le graphisme de ses tiges et pour ses inflorescences crème présentes tout l’été, sur les bords de mares, étangs, ou plantée dans 5 à 10 cm d’eau.
 </t>
@@ -574,7 +590,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est difficile à distinguer d'autres espèces du même genre Eleocharis. Elle présente des formes assez variées.
 </t>
@@ -605,12 +623,14 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (8 septembre 2018)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (8 septembre 2018) :
 Eleocharis palustris subsp. palustris
 Eleocharis palustris subsp. vulgaris Walters
-Selon Tropicos                                           (8 septembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 septembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Eleocharis palustris subsp. austriaca (Hayek) Podp.
 Eleocharis palustris subsp. globularis (Zinserl.) T.V. Egorova
 Eleocharis palustris subsp. intersita (G. Zinserl.) Tzvelev
